--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.38.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.38.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1353,7 +1353,7 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1717,7 +1717,7 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -2039,7 +2039,7 @@
         <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -2543,7 +2543,7 @@
         <v>145</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -2599,7 +2599,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
